--- a/gg/写正文/开源和商用SDN控制器.xlsx
+++ b/gg/写正文/开源和商用SDN控制器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,19 +157,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Adara Networks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是一款基于OpenFlow的SDN控制器。还有Horizon，一款为SDN管理设计的元控制器，可用于多厂商多协议(无论虚拟还是物理)的网络。Adara Networks已经开发了一套应用，包括可提供全方位软件定义运算和网络环境的控器。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sky</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Big Switch Networks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -421,13 +413,21 @@
   </si>
   <si>
     <t>Vmware（收购Nicira）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adara Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Big Switch Networks</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,7 +529,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -818,7 +818,7 @@
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -971,264 +971,264 @@
     </row>
     <row r="16" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="54" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
